--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject4.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject4.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="0">
         <v>0</v>
@@ -152,7 +152,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1" s="0">
         <v>0</v>
@@ -164,7 +164,7 @@
         <v>0</v>
       </c>
       <c r="M1" s="0">
-        <v>0</v>
+        <v>0.66122860756865609</v>
       </c>
       <c r="N1" s="0">
         <v>0</v>
@@ -194,7 +194,7 @@
         <v>0</v>
       </c>
       <c r="W1" s="0">
-        <v>0</v>
+        <v>0.51058626693645914</v>
       </c>
       <c r="X1" s="0">
         <v>0</v>
@@ -236,7 +236,7 @@
         <v>0</v>
       </c>
       <c r="AK1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL1" s="0">
         <v>0</v>
@@ -269,7 +269,7 @@
         <v>0</v>
       </c>
       <c r="AV1" s="0">
-        <v>0</v>
+        <v>0.82465565965151044</v>
       </c>
       <c r="AW1" s="0">
         <v>0</v>
@@ -308,7 +308,7 @@
         <v>0</v>
       </c>
       <c r="BI1" s="0">
-        <v>0</v>
+        <v>0.87316156654929455</v>
       </c>
       <c r="BJ1" s="0">
         <v>0</v>
@@ -329,12 +329,12 @@
         <v>0</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -343,7 +343,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -358,7 +358,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="0">
         <v>0</v>
@@ -397,10 +397,10 @@
         <v>0</v>
       </c>
       <c r="V2" s="0">
-        <v>0</v>
+        <v>0.52746073588691189</v>
       </c>
       <c r="W2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" s="0">
         <v>0</v>
@@ -427,7 +427,7 @@
         <v>0</v>
       </c>
       <c r="AF2" s="0">
-        <v>0</v>
+        <v>0.987794281555187</v>
       </c>
       <c r="AG2" s="0">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="AN2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="0">
         <v>0</v>
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="BL2" s="0">
-        <v>0</v>
+        <v>0.84968293093909164</v>
       </c>
       <c r="BM2" s="0">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>0</v>
+        <v>0.7529030834860948</v>
       </c>
     </row>
     <row r="3">
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0</v>
+        <v>0.61277145220727958</v>
       </c>
       <c r="E3" s="0">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="0">
-        <v>0</v>
+        <v>0.60677068538514312</v>
       </c>
       <c r="N3" s="0">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="0">
         <v>0</v>
@@ -603,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="V3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" s="0">
         <v>0</v>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="0">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="BB3" s="0">
-        <v>0</v>
+        <v>0.97936999799881952</v>
       </c>
       <c r="BC3" s="0">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="BE3" s="0">
-        <v>1</v>
+        <v>0.73402378239747079</v>
       </c>
       <c r="BF3" s="0">
         <v>0</v>
@@ -749,22 +749,22 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>0.62953315856598091</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0</v>
+        <v>0.89388248573392537</v>
       </c>
       <c r="F4" s="0">
         <v>0</v>
       </c>
       <c r="G4" s="0">
-        <v>0</v>
+        <v>0.94901695591233415</v>
       </c>
       <c r="H4" s="0">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="0">
         <v>0</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="AF4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="0">
         <v>0</v>
@@ -854,22 +854,22 @@
         <v>0</v>
       </c>
       <c r="AK4" s="0">
-        <v>0</v>
+        <v>0.57916355367158467</v>
       </c>
       <c r="AL4" s="0">
         <v>0</v>
       </c>
       <c r="AM4" s="0">
-        <v>0</v>
+        <v>0.63504383439426437</v>
       </c>
       <c r="AN4" s="0">
         <v>0</v>
       </c>
       <c r="AO4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ4" s="0">
         <v>0</v>
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="AW4" s="0">
-        <v>0</v>
+        <v>0.92788934203150664</v>
       </c>
       <c r="AX4" s="0">
         <v>0</v>
@@ -961,13 +961,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0</v>
+        <v>0.5023945385523767</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0</v>
+        <v>0.8548783731331917</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="AN5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP5" s="0">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="AY5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="0">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="BJ5" s="0">
-        <v>0</v>
+        <v>0.52951617681965057</v>
       </c>
       <c r="BK5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL5" s="0">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0</v>
+        <v>0.98913587262907199</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1179,13 +1179,13 @@
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0</v>
+        <v>0.69177247122856422</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
       </c>
       <c r="J6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="0">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="0">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Y6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="0">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="AD6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="0">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="BE6" s="0">
-        <v>0</v>
+        <v>0.55212637546956</v>
       </c>
       <c r="BF6" s="0">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="BN6" s="0">
-        <v>0</v>
+        <v>0.72964100011510258</v>
       </c>
       <c r="BO6" s="0">
         <v>0</v>
       </c>
       <c r="BP6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0</v>
+        <v>0.7138841774761151</v>
       </c>
       <c r="E7" s="0">
         <v>0</v>
@@ -1412,13 +1412,13 @@
         <v>0</v>
       </c>
       <c r="Q7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="0">
         <v>0</v>
       </c>
       <c r="S7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="0">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="0">
         <v>0</v>
@@ -1490,13 +1490,13 @@
         <v>0</v>
       </c>
       <c r="AQ7" s="0">
-        <v>0</v>
+        <v>0.62695683935227986</v>
       </c>
       <c r="AR7" s="0">
         <v>0</v>
       </c>
       <c r="AS7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="0">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="BJ7" s="0">
-        <v>0</v>
+        <v>0.82768275336806885</v>
       </c>
       <c r="BK7" s="0">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0</v>
+        <v>0.67355869652047984</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
@@ -1594,10 +1594,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>0</v>
+        <v>0.81654753756587695</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="0">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="Y8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="0">
-        <v>0</v>
+        <v>0.5058655672886474</v>
       </c>
       <c r="AA8" s="0">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="AP8" s="0">
-        <v>0</v>
+        <v>0.72577065448624023</v>
       </c>
       <c r="AQ8" s="0">
         <v>0</v>
@@ -1702,13 +1702,13 @@
         <v>0</v>
       </c>
       <c r="AS8" s="0">
-        <v>0</v>
+        <v>0.74814023971854637</v>
       </c>
       <c r="AT8" s="0">
         <v>0</v>
       </c>
       <c r="AU8" s="0">
-        <v>0</v>
+        <v>0.68544801550219969</v>
       </c>
       <c r="AV8" s="0">
         <v>0</v>
@@ -1776,10 +1776,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
@@ -1797,13 +1797,13 @@
         <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0</v>
+        <v>0.83057183450975813</v>
       </c>
       <c r="K9" s="0">
         <v>0</v>
@@ -1869,10 +1869,10 @@
         <v>0</v>
       </c>
       <c r="AF9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="0">
-        <v>0</v>
+        <v>0.98212929099000124</v>
       </c>
       <c r="AH9" s="0">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>0</v>
       </c>
       <c r="AU9" s="0">
-        <v>0</v>
+        <v>0.58274526235181012</v>
       </c>
       <c r="AV9" s="0">
         <v>0</v>
       </c>
       <c r="AW9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX9" s="0">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="BN9" s="0">
-        <v>0</v>
+        <v>0.56895933294684331</v>
       </c>
       <c r="BO9" s="0">
         <v>0</v>
@@ -1997,16 +1997,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0</v>
+        <v>0.67532524724715504</v>
       </c>
       <c r="I10" s="0">
-        <v>0</v>
+        <v>0.81960357833756525</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -2042,13 +2042,13 @@
         <v>0</v>
       </c>
       <c r="U10" s="0">
-        <v>0</v>
+        <v>0.52816071411977705</v>
       </c>
       <c r="V10" s="0">
         <v>0</v>
       </c>
       <c r="W10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" s="0">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="BF10" s="0">
-        <v>0</v>
+        <v>0.88154421530554461</v>
       </c>
       <c r="BG10" s="0">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="BJ10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK10" s="0">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" s="0">
         <v>0</v>
@@ -2257,16 +2257,16 @@
         <v>0</v>
       </c>
       <c r="X11" s="0">
-        <v>0</v>
+        <v>0.99514510829427172</v>
       </c>
       <c r="Y11" s="0">
         <v>0</v>
       </c>
       <c r="Z11" s="0">
-        <v>0</v>
+        <v>0.70861245234536263</v>
       </c>
       <c r="AA11" s="0">
-        <v>0</v>
+        <v>0.55052907503800486</v>
       </c>
       <c r="AB11" s="0">
         <v>0</v>
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="AD11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="0">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="0">
-        <v>0</v>
+        <v>0.81406275194170141</v>
       </c>
       <c r="AK11" s="0">
         <v>0</v>
       </c>
       <c r="AL11" s="0">
-        <v>0</v>
+        <v>0.68399218275655249</v>
       </c>
       <c r="AM11" s="0">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="BI11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ11" s="0">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>0</v>
+        <v>0.77361323810457827</v>
       </c>
       <c r="N12" s="0">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="V12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" s="0">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="AE12" s="0">
-        <v>0</v>
+        <v>0.66309803726732364</v>
       </c>
       <c r="AF12" s="0">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="AX12" s="0">
-        <v>0</v>
+        <v>0.61397680329318494</v>
       </c>
       <c r="AY12" s="0">
         <v>0</v>
@@ -2595,18 +2595,18 @@
         <v>0</v>
       </c>
       <c r="BP12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0</v>
+        <v>0.74705347331603278</v>
       </c>
       <c r="B13" s="0">
         <v>0</v>
       </c>
       <c r="C13" s="0">
-        <v>0</v>
+        <v>0.95475504516532927</v>
       </c>
       <c r="D13" s="0">
         <v>0</v>
@@ -2633,22 +2633,22 @@
         <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>0</v>
+        <v>0.80350897067894156</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
       </c>
       <c r="Q13" s="0">
-        <v>0</v>
+        <v>0.7082412433308849</v>
       </c>
       <c r="R13" s="0">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="0">
-        <v>0</v>
+        <v>0.90944922926212901</v>
       </c>
       <c r="AB13" s="0">
         <v>0</v>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="AR13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS13" s="0">
         <v>0</v>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="BG13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH13" s="0">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
@@ -2887,13 +2887,13 @@
         <v>0</v>
       </c>
       <c r="AB14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="0">
         <v>0</v>
       </c>
       <c r="AD14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="0">
         <v>0</v>
@@ -2905,13 +2905,13 @@
         <v>0</v>
       </c>
       <c r="AH14" s="0">
-        <v>0</v>
+        <v>0.64433815433657582</v>
       </c>
       <c r="AI14" s="0">
         <v>0</v>
       </c>
       <c r="AJ14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="0">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="AW14" s="0">
-        <v>0</v>
+        <v>0.63032681738216334</v>
       </c>
       <c r="AX14" s="0">
         <v>0</v>
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="BF14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG14" s="0">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="BN14" s="0">
-        <v>0</v>
+        <v>0.73061418702048653</v>
       </c>
       <c r="BO14" s="0">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="0">
         <v>0</v>
@@ -3090,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="0">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="AD15" s="0">
-        <v>0</v>
+        <v>0.99940844791347305</v>
       </c>
       <c r="AE15" s="0">
         <v>0</v>
@@ -3123,19 +3123,19 @@
         <v>0</v>
       </c>
       <c r="AL15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="0">
         <v>0</v>
       </c>
       <c r="AN15" s="0">
-        <v>0</v>
+        <v>0.72622315395756631</v>
       </c>
       <c r="AO15" s="0">
         <v>0</v>
       </c>
       <c r="AP15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ15" s="0">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="BK15" s="0">
-        <v>0</v>
+        <v>0.64254535743221464</v>
       </c>
       <c r="BL15" s="0">
         <v>0</v>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="BP15" s="0">
-        <v>0</v>
+        <v>0.77887502317881463</v>
       </c>
     </row>
     <row r="16">
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="0">
         <v>0</v>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>0</v>
+        <v>0.89702323828562325</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="Z16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="0">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="AR16" s="0">
-        <v>0</v>
+        <v>0.61690514608202374</v>
       </c>
       <c r="AS16" s="0">
         <v>0</v>
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="BF16" s="0">
-        <v>0</v>
+        <v>0.5006141539945419</v>
       </c>
       <c r="BG16" s="0">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="BJ16" s="0">
-        <v>0</v>
+        <v>0.7305779298818047</v>
       </c>
       <c r="BK16" s="0">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="0">
         <v>0</v>
@@ -3460,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="0">
-        <v>0</v>
+        <v>0.85471983535998142</v>
       </c>
       <c r="N17" s="0">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>0</v>
+        <v>0.95209362679003862</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="0">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="AU17" s="0">
-        <v>0</v>
+        <v>0.75137829940100864</v>
       </c>
       <c r="AV17" s="0">
         <v>0</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="BC17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="0">
         <v>0</v>
@@ -3619,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="BN17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO17" s="0">
         <v>0</v>
@@ -3645,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="0">
         <v>0</v>
@@ -3675,22 +3675,22 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0</v>
+        <v>0.90098134554964437</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="0">
         <v>0</v>
       </c>
       <c r="U18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" s="0">
         <v>0</v>
@@ -3699,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="X18" s="0">
-        <v>0</v>
+        <v>0.79348192148999119</v>
       </c>
       <c r="Y18" s="0">
         <v>0</v>
@@ -3789,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="BB18" s="0">
-        <v>0</v>
+        <v>0.88188378494703745</v>
       </c>
       <c r="BC18" s="0">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="0">
         <v>0</v>
@@ -3854,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="0">
         <v>0</v>
@@ -3884,16 +3884,16 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0</v>
+        <v>0.53190623573472573</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0</v>
+        <v>0.84056504141981114</v>
       </c>
       <c r="U19" s="0">
         <v>0</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="AE19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF19" s="0">
         <v>0</v>
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="AJ19" s="0">
-        <v>0</v>
+        <v>0.81218311658253872</v>
       </c>
       <c r="AK19" s="0">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="BA19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB19" s="0">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="BK19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL19" s="0">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="0">
         <v>0</v>
@@ -4096,13 +4096,13 @@
         <v>0</v>
       </c>
       <c r="S20" s="0">
-        <v>0</v>
+        <v>0.8872847592486226</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>0</v>
+        <v>0.95486920204536918</v>
       </c>
       <c r="V20" s="0">
         <v>0</v>
@@ -4144,10 +4144,10 @@
         <v>0</v>
       </c>
       <c r="AI20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="0">
         <v>0</v>
@@ -4171,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="AR20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS20" s="0">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="AU20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV20" s="0">
         <v>0</v>
       </c>
       <c r="AW20" s="0">
-        <v>0</v>
+        <v>0.70914081186707012</v>
       </c>
       <c r="AX20" s="0">
         <v>0</v>
@@ -4201,13 +4201,13 @@
         <v>0</v>
       </c>
       <c r="BB20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC20" s="0">
         <v>0</v>
       </c>
       <c r="BD20" s="0">
-        <v>0</v>
+        <v>0.99721068004611912</v>
       </c>
       <c r="BE20" s="0">
         <v>0</v>
@@ -4275,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="0">
-        <v>0</v>
+        <v>0.61287931188660827</v>
       </c>
       <c r="K21" s="0">
         <v>0</v>
@@ -4299,13 +4299,13 @@
         <v>0</v>
       </c>
       <c r="R21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" s="0">
         <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>0</v>
+        <v>0.58144184865753001</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
@@ -4344,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="AG21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH21" s="0">
         <v>0</v>
@@ -4359,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="AL21" s="0">
-        <v>0</v>
+        <v>0.81061524446932887</v>
       </c>
       <c r="AM21" s="0">
         <v>0</v>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="AO21" s="0">
-        <v>0</v>
+        <v>0.77171084394888689</v>
       </c>
       <c r="AP21" s="0">
         <v>0</v>
@@ -4457,10 +4457,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="0">
-        <v>0</v>
+        <v>0.83398991363645592</v>
       </c>
       <c r="C22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="0">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="0">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="0">
-        <v>1</v>
+        <v>0.80397000015995279</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4565,10 +4565,10 @@
         <v>0</v>
       </c>
       <c r="AL22" s="0">
-        <v>0</v>
+        <v>0.75195533281915583</v>
       </c>
       <c r="AM22" s="0">
-        <v>0</v>
+        <v>0.50300866053295579</v>
       </c>
       <c r="AN22" s="0">
         <v>0</v>
@@ -4660,10 +4660,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0</v>
+        <v>0.80323194019730071</v>
       </c>
       <c r="B23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="0">
         <v>0</v>
@@ -4687,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="0">
         <v>0</v>
@@ -4738,13 +4738,13 @@
         <v>0</v>
       </c>
       <c r="AA23" s="0">
-        <v>0</v>
+        <v>0.86610632356039141</v>
       </c>
       <c r="AB23" s="0">
         <v>0</v>
       </c>
       <c r="AC23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="0">
         <v>0</v>
@@ -4759,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="AH23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI23" s="0">
         <v>0</v>
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="AM23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN23" s="0">
         <v>0</v>
@@ -4828,13 +4828,13 @@
         <v>0</v>
       </c>
       <c r="BE23" s="0">
-        <v>0</v>
+        <v>0.56026938907307433</v>
       </c>
       <c r="BF23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH23" s="0">
         <v>0</v>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="BP23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -4896,7 +4896,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="0">
-        <v>0</v>
+        <v>0.55884065140429251</v>
       </c>
       <c r="L24" s="0">
         <v>0</v>
@@ -4917,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="0">
-        <v>0</v>
+        <v>0.88892397301674886</v>
       </c>
       <c r="S24" s="0">
         <v>0</v>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>1</v>
+        <v>0.64315726311154153</v>
       </c>
       <c r="W24" s="0">
         <v>0</v>
@@ -4938,10 +4938,10 @@
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="AD24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="0">
         <v>0</v>
@@ -4965,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="AH24" s="0">
-        <v>0</v>
+        <v>0.62960824050825748</v>
       </c>
       <c r="AI24" s="0">
         <v>0</v>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="AQ24" s="0">
-        <v>0</v>
+        <v>0.9294839954613956</v>
       </c>
       <c r="AR24" s="0">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="BN24" s="0">
-        <v>0</v>
+        <v>0.94768479458433186</v>
       </c>
       <c r="BO24" s="0">
         <v>0</v>
@@ -5087,13 +5087,13 @@
         <v>0</v>
       </c>
       <c r="F25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="0">
         <v>0</v>
       </c>
       <c r="H25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="0">
         <v>0</v>
@@ -5141,13 +5141,13 @@
         <v>0</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>0</v>
+        <v>0.86252842880256231</v>
       </c>
       <c r="AA25" s="0">
         <v>0</v>
@@ -5234,13 +5234,13 @@
         <v>0</v>
       </c>
       <c r="BC25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="0">
         <v>0</v>
       </c>
       <c r="BE25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF25" s="0">
         <v>0</v>
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="BL25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM25" s="0">
-        <v>0</v>
+        <v>0.61755732770622596</v>
       </c>
       <c r="BN25" s="0">
         <v>0</v>
@@ -5299,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="0">
-        <v>0</v>
+        <v>0.87450487122906995</v>
       </c>
       <c r="I26" s="0">
         <v>0</v>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="0">
-        <v>0</v>
+        <v>0.53803116247878502</v>
       </c>
       <c r="L26" s="0">
         <v>0</v>
@@ -5323,10 +5323,10 @@
         <v>0</v>
       </c>
       <c r="P26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="0">
         <v>0</v>
@@ -5347,10 +5347,10 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="0">
-        <v>0</v>
+        <v>0.83097157045319647</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
@@ -5434,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="BA26" s="0">
-        <v>0</v>
+        <v>0.68197135022516975</v>
       </c>
       <c r="BB26" s="0">
         <v>0</v>
@@ -5467,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="BL26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM26" s="0">
         <v>0</v>
@@ -5514,19 +5514,19 @@
         <v>0</v>
       </c>
       <c r="K27" s="0">
-        <v>0</v>
+        <v>0.67512047594567448</v>
       </c>
       <c r="L27" s="0">
         <v>0</v>
       </c>
       <c r="M27" s="0">
-        <v>0</v>
+        <v>0.82774309075719454</v>
       </c>
       <c r="N27" s="0">
         <v>0</v>
       </c>
       <c r="O27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" s="0">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="0">
-        <v>0</v>
+        <v>0.61513730845766612</v>
       </c>
       <c r="X27" s="0">
         <v>0</v>
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="0">
         <v>0</v>
@@ -5586,13 +5586,13 @@
         <v>0</v>
       </c>
       <c r="AI27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ27" s="0">
         <v>0</v>
       </c>
       <c r="AK27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="0">
         <v>0</v>
@@ -5610,13 +5610,13 @@
         <v>0</v>
       </c>
       <c r="AQ27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR27" s="0">
         <v>0</v>
       </c>
       <c r="AS27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT27" s="0">
         <v>0</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="BC27" s="0">
-        <v>0</v>
+        <v>0.64095145106690299</v>
       </c>
       <c r="BD27" s="0">
         <v>0</v>
@@ -5658,10 +5658,10 @@
         <v>0</v>
       </c>
       <c r="BG27" s="0">
-        <v>0</v>
+        <v>0.76432981619745588</v>
       </c>
       <c r="BH27" s="0">
-        <v>0</v>
+        <v>0.72410827749282158</v>
       </c>
       <c r="BI27" s="0">
         <v>0</v>
@@ -5673,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="BL27" s="0">
-        <v>0</v>
+        <v>0.51654329305720736</v>
       </c>
       <c r="BM27" s="0">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="0">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5828,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="AU28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV28" s="0">
         <v>0</v>
@@ -5843,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="AZ28" s="0">
-        <v>0</v>
+        <v>0.74777608516305794</v>
       </c>
       <c r="BA28" s="0">
         <v>0</v>
@@ -5876,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="BK28" s="0">
-        <v>0</v>
+        <v>0.83643444153672764</v>
       </c>
       <c r="BL28" s="0">
         <v>0</v>
@@ -5902,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="0">
         <v>0</v>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29" s="0">
         <v>0</v>
@@ -5983,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0</v>
+        <v>0.61660827385002503</v>
       </c>
       <c r="AE29" s="0">
         <v>0</v>
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="AU29" s="0">
-        <v>0</v>
+        <v>0.95239583987797305</v>
       </c>
       <c r="AV29" s="0">
         <v>0</v>
@@ -6067,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="BF29" s="0">
-        <v>0</v>
+        <v>0.53019150775730084</v>
       </c>
       <c r="BG29" s="0">
         <v>0</v>
@@ -6094,10 +6094,10 @@
         <v>0</v>
       </c>
       <c r="BO29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -6117,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" s="0">
         <v>0</v>
@@ -6132,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="0">
         <v>0</v>
@@ -6141,10 +6141,10 @@
         <v>0</v>
       </c>
       <c r="N30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" s="0">
-        <v>0</v>
+        <v>0.80076951744788705</v>
       </c>
       <c r="P30" s="0">
         <v>0</v>
@@ -6171,7 +6171,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="0">
         <v>0</v>
@@ -6186,19 +6186,19 @@
         <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>0</v>
+        <v>0.8839142387978236</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0</v>
+        <v>0.54540647587672764</v>
       </c>
       <c r="AF30" s="0">
-        <v>0</v>
+        <v>0.85947290307887925</v>
       </c>
       <c r="AG30" s="0">
-        <v>0</v>
+        <v>0.95728322652776221</v>
       </c>
       <c r="AH30" s="0">
         <v>0</v>
@@ -6228,7 +6228,7 @@
         <v>0</v>
       </c>
       <c r="AQ30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR30" s="0">
         <v>0</v>
@@ -6279,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="BH30" s="0">
-        <v>0</v>
+        <v>0.53394768900966327</v>
       </c>
       <c r="BI30" s="0">
         <v>0</v>
@@ -6300,7 +6300,7 @@
         <v>0</v>
       </c>
       <c r="BO30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP30" s="0">
         <v>0</v>
@@ -6341,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="0">
-        <v>0</v>
+        <v>0.78823001074952681</v>
       </c>
       <c r="M31" s="0">
         <v>0</v>
@@ -6362,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" s="0">
         <v>0</v>
@@ -6395,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="AD31" s="0">
-        <v>0</v>
+        <v>0.63219208301902463</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="AL31" s="0">
-        <v>0</v>
+        <v>0.80789143665038776</v>
       </c>
       <c r="AM31" s="0">
         <v>0</v>
@@ -6428,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="AO31" s="0">
-        <v>0</v>
+        <v>0.99333481156362602</v>
       </c>
       <c r="AP31" s="0">
         <v>0</v>
@@ -6437,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="AR31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS31" s="0">
         <v>0</v>
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="AV31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW31" s="0">
         <v>0</v>
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="BB31" s="0">
-        <v>0</v>
+        <v>0.85103480605091031</v>
       </c>
       <c r="BC31" s="0">
         <v>0</v>
@@ -6479,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="BF31" s="0">
-        <v>0</v>
+        <v>0.56501843588217904</v>
       </c>
       <c r="BG31" s="0">
         <v>0</v>
@@ -6517,13 +6517,13 @@
         <v>0</v>
       </c>
       <c r="B32" s="0">
-        <v>0</v>
+        <v>0.78357816408488246</v>
       </c>
       <c r="C32" s="0">
         <v>0</v>
       </c>
       <c r="D32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="0">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="0">
         <v>0</v>
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>0</v>
+        <v>0.91171652746626752</v>
       </c>
       <c r="AE32" s="0">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="AI32" s="0">
-        <v>0</v>
+        <v>0.60540692795759887</v>
       </c>
       <c r="AJ32" s="0">
         <v>0</v>
@@ -6685,10 +6685,10 @@
         <v>0</v>
       </c>
       <c r="BF32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG32" s="0">
-        <v>0</v>
+        <v>0.90890393195620067</v>
       </c>
       <c r="BH32" s="0">
         <v>0</v>
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="BJ32" s="0">
-        <v>0</v>
+        <v>0.9731813116351149</v>
       </c>
       <c r="BK32" s="0">
         <v>0</v>
@@ -6744,7 +6744,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="0">
-        <v>0</v>
+        <v>0.62549718102184459</v>
       </c>
       <c r="J33" s="0">
         <v>0</v>
@@ -6780,7 +6780,7 @@
         <v>0</v>
       </c>
       <c r="U33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" s="0">
         <v>0</v>
@@ -6807,10 +6807,10 @@
         <v>0</v>
       </c>
       <c r="AD33" s="0">
-        <v>0</v>
+        <v>0.53195675360803962</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="0">
         <v>0</v>
@@ -6846,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="AQ33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR33" s="0">
         <v>0</v>
@@ -6861,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="AV33" s="0">
-        <v>0</v>
+        <v>0.82305273048155492</v>
       </c>
       <c r="AW33" s="0">
         <v>0</v>
@@ -6873,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="AZ33" s="0">
-        <v>0</v>
+        <v>0.63860523769621202</v>
       </c>
       <c r="BA33" s="0">
         <v>0</v>
@@ -6912,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="BM33" s="0">
-        <v>0</v>
+        <v>0.57854748294076086</v>
       </c>
       <c r="BN33" s="0">
         <v>0</v>
@@ -6965,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="0">
-        <v>0</v>
+        <v>0.57973581788103634</v>
       </c>
       <c r="O34" s="0">
         <v>0</v>
@@ -6992,10 +6992,10 @@
         <v>0</v>
       </c>
       <c r="W34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X34" s="0">
-        <v>0</v>
+        <v>0.97736967657496154</v>
       </c>
       <c r="Y34" s="0">
         <v>0</v>
@@ -7052,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="AQ34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR34" s="0">
         <v>0</v>
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="BD34" s="0">
-        <v>0</v>
+        <v>0.72207721221851506</v>
       </c>
       <c r="BE34" s="0">
         <v>0</v>
@@ -7124,10 +7124,10 @@
         <v>0</v>
       </c>
       <c r="BO34" s="0">
-        <v>0</v>
+        <v>0.55496485390991968</v>
       </c>
       <c r="BP34" s="0">
-        <v>0</v>
+        <v>0.74277251321456084</v>
       </c>
     </row>
     <row r="35">
@@ -7189,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" s="0">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="AA35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="0">
         <v>0</v>
@@ -7225,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="AF35" s="0">
-        <v>0</v>
+        <v>0.87378659057682873</v>
       </c>
       <c r="AG35" s="0">
         <v>0</v>
@@ -7255,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="AP35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ35" s="0">
         <v>0</v>
@@ -7267,10 +7267,10 @@
         <v>0</v>
       </c>
       <c r="AT35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV35" s="0">
         <v>0</v>
@@ -7282,7 +7282,7 @@
         <v>0</v>
       </c>
       <c r="AY35" s="0">
-        <v>0</v>
+        <v>0.75012488878855743</v>
       </c>
       <c r="AZ35" s="0">
         <v>0</v>
@@ -7315,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="BJ35" s="0">
-        <v>0</v>
+        <v>0.76015065320532715</v>
       </c>
       <c r="BK35" s="0">
         <v>0</v>
@@ -7356,7 +7356,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" s="0">
         <v>0</v>
@@ -7368,7 +7368,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="0">
-        <v>0</v>
+        <v>0.92238538842142082</v>
       </c>
       <c r="L36" s="0">
         <v>0</v>
@@ -7377,7 +7377,7 @@
         <v>0</v>
       </c>
       <c r="N36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" s="0">
         <v>0</v>
@@ -7392,10 +7392,10 @@
         <v>0</v>
       </c>
       <c r="S36" s="0">
-        <v>0</v>
+        <v>0.82933072987239287</v>
       </c>
       <c r="T36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36" s="0">
         <v>0</v>
@@ -7446,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="0">
         <v>0</v>
@@ -7488,7 +7488,7 @@
         <v>0</v>
       </c>
       <c r="AY36" s="0">
-        <v>0</v>
+        <v>0.96229163321650857</v>
       </c>
       <c r="AZ36" s="0">
         <v>0</v>
@@ -7544,7 +7544,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" s="0">
         <v>0</v>
@@ -7553,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="0">
-        <v>0</v>
+        <v>0.66419335419379733</v>
       </c>
       <c r="E37" s="0">
         <v>0</v>
@@ -7622,7 +7622,7 @@
         <v>0</v>
       </c>
       <c r="AA37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="0">
         <v>0</v>
@@ -7649,13 +7649,13 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="0">
         <v>0</v>
@@ -7676,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="0">
-        <v>0</v>
+        <v>0.57295055480543544</v>
       </c>
       <c r="AT37" s="0">
         <v>0</v>
@@ -7736,7 +7736,7 @@
         <v>0</v>
       </c>
       <c r="BM37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN37" s="0">
         <v>0</v>
@@ -7780,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="0">
-        <v>0</v>
+        <v>0.77335972802818775</v>
       </c>
       <c r="L38" s="0">
         <v>0</v>
@@ -7792,7 +7792,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" s="0">
         <v>0</v>
@@ -7810,10 +7810,10 @@
         <v>0</v>
       </c>
       <c r="U38" s="0">
-        <v>0</v>
+        <v>0.89290962869098767</v>
       </c>
       <c r="V38" s="0">
-        <v>0</v>
+        <v>0.59842891945918053</v>
       </c>
       <c r="W38" s="0">
         <v>0</v>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="AE38" s="0">
-        <v>0</v>
+        <v>0.77982652800837227</v>
       </c>
       <c r="AF38" s="0">
         <v>0</v>
@@ -7858,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
@@ -7870,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="AO38" s="0">
-        <v>0</v>
+        <v>0.64293538039226883</v>
       </c>
       <c r="AP38" s="0">
         <v>0</v>
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="AS38" s="0">
-        <v>0</v>
+        <v>0.54822281206740753</v>
       </c>
       <c r="AT38" s="0">
         <v>0</v>
@@ -7927,7 +7927,7 @@
         <v>0</v>
       </c>
       <c r="BH38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI38" s="0">
         <v>0</v>
@@ -7936,7 +7936,7 @@
         <v>0</v>
       </c>
       <c r="BK38" s="0">
-        <v>0</v>
+        <v>0.79287551197713746</v>
       </c>
       <c r="BL38" s="0">
         <v>0</v>
@@ -7965,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="D39" s="0">
-        <v>0</v>
+        <v>0.74862432386903432</v>
       </c>
       <c r="E39" s="0">
         <v>0</v>
@@ -8019,10 +8019,10 @@
         <v>0</v>
       </c>
       <c r="V39" s="0">
-        <v>0</v>
+        <v>0.77599671966449435</v>
       </c>
       <c r="W39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39" s="0">
         <v>0</v>
@@ -8094,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="AU39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV39" s="0">
         <v>0</v>
@@ -8165,7 +8165,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" s="0">
         <v>0</v>
@@ -8174,7 +8174,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="0">
         <v>0</v>
@@ -8204,7 +8204,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="0">
-        <v>0</v>
+        <v>0.7354650230074371</v>
       </c>
       <c r="P40" s="0">
         <v>0</v>
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP40" s="0">
         <v>0</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="AR40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS40" s="0">
         <v>0</v>
       </c>
       <c r="AT40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU40" s="0">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="AW40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX40" s="0">
         <v>0</v>
@@ -8339,7 +8339,7 @@
         <v>0</v>
       </c>
       <c r="BH40" s="0">
-        <v>0</v>
+        <v>0.80472789628304708</v>
       </c>
       <c r="BI40" s="0">
         <v>0</v>
@@ -8377,10 +8377,10 @@
         <v>0</v>
       </c>
       <c r="D41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="0">
         <v>0</v>
@@ -8428,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="U41" s="0">
-        <v>0</v>
+        <v>0.79653780392402429</v>
       </c>
       <c r="V41" s="0">
         <v>0</v>
@@ -8458,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="AE41" s="0">
-        <v>0</v>
+        <v>0.93821057080248638</v>
       </c>
       <c r="AF41" s="0">
         <v>0</v>
@@ -8479,13 +8479,13 @@
         <v>0</v>
       </c>
       <c r="AL41" s="0">
-        <v>0</v>
+        <v>0.8077943550835851</v>
       </c>
       <c r="AM41" s="0">
         <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
@@ -8518,10 +8518,10 @@
         <v>0</v>
       </c>
       <c r="AY41" s="0">
-        <v>0</v>
+        <v>0.92377693888359169</v>
       </c>
       <c r="AZ41" s="0">
-        <v>0</v>
+        <v>0.9292864240944354</v>
       </c>
       <c r="BA41" s="0">
         <v>0</v>
@@ -8554,10 +8554,10 @@
         <v>0</v>
       </c>
       <c r="BK41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM41" s="0">
         <v>0</v>
@@ -8583,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="0">
         <v>0</v>
@@ -8595,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="0">
-        <v>0</v>
+        <v>0.53393443954905895</v>
       </c>
       <c r="I42" s="0">
         <v>0</v>
@@ -8616,7 +8616,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" s="0">
         <v>0</v>
@@ -8676,7 +8676,7 @@
         <v>0</v>
       </c>
       <c r="AI42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ42" s="0">
         <v>0</v>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0</v>
+        <v>0.81461304812386393</v>
       </c>
       <c r="AR42" s="0">
         <v>0</v>
@@ -8724,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="AY42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ42" s="0">
         <v>0</v>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="0">
-        <v>0</v>
+        <v>0.79487120927187027</v>
       </c>
       <c r="H43" s="0">
         <v>0</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="0">
-        <v>0</v>
+        <v>0.74020337239328104</v>
       </c>
       <c r="Y43" s="0">
         <v>0</v>
@@ -8858,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="AA43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="0">
         <v>0</v>
@@ -8867,7 +8867,7 @@
         <v>0</v>
       </c>
       <c r="AD43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE43" s="0">
         <v>0</v>
@@ -8876,10 +8876,10 @@
         <v>0</v>
       </c>
       <c r="AG43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI43" s="0">
         <v>0</v>
@@ -8903,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="AP43" s="0">
-        <v>0</v>
+        <v>0.72359833613460323</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="BA43" s="0">
-        <v>0</v>
+        <v>0.9245333613082628</v>
       </c>
       <c r="BB43" s="0">
         <v>0</v>
@@ -9022,7 +9022,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" s="0">
         <v>0</v>
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="0">
-        <v>0</v>
+        <v>0.98878028332690282</v>
       </c>
       <c r="Q44" s="0">
         <v>0</v>
@@ -9043,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="T44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U44" s="0">
         <v>0</v>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="AE44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF44" s="0">
         <v>0</v>
@@ -9103,7 +9103,7 @@
         <v>0</v>
       </c>
       <c r="AN44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO44" s="0">
         <v>0</v>
@@ -9121,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>0</v>
+        <v>0.96547892125299117</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9148,7 +9148,7 @@
         <v>0</v>
       </c>
       <c r="BC44" s="0">
-        <v>0</v>
+        <v>0.94557851611297172</v>
       </c>
       <c r="BD44" s="0">
         <v>0</v>
@@ -9210,10 +9210,10 @@
         <v>0</v>
       </c>
       <c r="G45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="0">
-        <v>0</v>
+        <v>0.7175095794833658</v>
       </c>
       <c r="I45" s="0">
         <v>0</v>
@@ -9270,7 +9270,7 @@
         <v>0</v>
       </c>
       <c r="AA45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="0">
         <v>0</v>
@@ -9300,10 +9300,10 @@
         <v>0</v>
       </c>
       <c r="AK45" s="0">
-        <v>0</v>
+        <v>0.70354892615028874</v>
       </c>
       <c r="AL45" s="0">
-        <v>0</v>
+        <v>0.83690423746847975</v>
       </c>
       <c r="AM45" s="0">
         <v>0</v>
@@ -9378,10 +9378,10 @@
         <v>0</v>
       </c>
       <c r="BK45" s="0">
-        <v>0</v>
+        <v>0.77542107415508665</v>
       </c>
       <c r="BL45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM45" s="0">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="AI46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ46" s="0">
         <v>0</v>
@@ -9515,7 +9515,7 @@
         <v>0</v>
       </c>
       <c r="AN46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO46" s="0">
         <v>0</v>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0</v>
+        <v>0.82437301308154143</v>
       </c>
       <c r="AS46" s="0">
         <v>0</v>
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0.71502681838070692</v>
       </c>
       <c r="AV46" s="0">
         <v>0</v>
@@ -9578,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="BI46" s="0">
-        <v>0</v>
+        <v>0.8922441749513319</v>
       </c>
       <c r="BJ46" s="0">
         <v>0</v>
@@ -9625,10 +9625,10 @@
         <v>0</v>
       </c>
       <c r="H47" s="0">
-        <v>0</v>
+        <v>0.89546248139836271</v>
       </c>
       <c r="I47" s="0">
-        <v>0</v>
+        <v>0.74740832509091404</v>
       </c>
       <c r="J47" s="0">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="0">
-        <v>0</v>
+        <v>0.66910554905691133</v>
       </c>
       <c r="R47" s="0">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U47" s="0">
         <v>0</v>
@@ -9685,10 +9685,10 @@
         <v>0</v>
       </c>
       <c r="AB47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC47" s="0">
-        <v>0</v>
+        <v>0.9830631260351711</v>
       </c>
       <c r="AD47" s="0">
         <v>0</v>
@@ -9706,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="AI47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ47" s="0">
         <v>0</v>
@@ -9718,7 +9718,7 @@
         <v>0</v>
       </c>
       <c r="AM47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN47" s="0">
         <v>0</v>
@@ -9739,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0.82425955800380335</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
@@ -9810,7 +9810,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0</v>
+        <v>0.62237322099689019</v>
       </c>
       <c r="B48" s="0">
         <v>0</v>
@@ -9900,13 +9900,13 @@
         <v>0</v>
       </c>
       <c r="AE48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF48" s="0">
         <v>0</v>
       </c>
       <c r="AG48" s="0">
-        <v>0</v>
+        <v>0.86700810579891874</v>
       </c>
       <c r="AH48" s="0">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -9978,7 +9978,7 @@
         <v>0</v>
       </c>
       <c r="BE48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF48" s="0">
         <v>0</v>
@@ -10025,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="0">
-        <v>0</v>
+        <v>0.935363866853689</v>
       </c>
       <c r="E49" s="0">
         <v>0</v>
@@ -10040,7 +10040,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" s="0">
         <v>0</v>
@@ -10055,7 +10055,7 @@
         <v>0</v>
       </c>
       <c r="N49" s="0">
-        <v>0</v>
+        <v>0.84272045261081585</v>
       </c>
       <c r="O49" s="0">
         <v>0</v>
@@ -10073,7 +10073,7 @@
         <v>0</v>
       </c>
       <c r="T49" s="0">
-        <v>0</v>
+        <v>0.79874999094900645</v>
       </c>
       <c r="U49" s="0">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="AN49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO49" s="0">
         <v>0</v>
@@ -10163,16 +10163,16 @@
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
       </c>
       <c r="BA49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB49" s="0">
         <v>0</v>
@@ -10255,7 +10255,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="0">
-        <v>0</v>
+        <v>0.955641385301367</v>
       </c>
       <c r="M50" s="0">
         <v>0</v>
@@ -10363,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
@@ -10399,7 +10399,7 @@
         <v>0</v>
       </c>
       <c r="BH50" s="0">
-        <v>1</v>
+        <v>0.65159022472693218</v>
       </c>
       <c r="BI50" s="0">
         <v>0</v>
@@ -10414,13 +10414,13 @@
         <v>0</v>
       </c>
       <c r="BM50" s="0">
-        <v>0</v>
+        <v>0.5374739174473333</v>
       </c>
       <c r="BN50" s="0">
         <v>0</v>
       </c>
       <c r="BO50" s="0">
-        <v>0</v>
+        <v>0.86711590171658381</v>
       </c>
       <c r="BP50" s="0">
         <v>0</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="0">
         <v>0</v>
@@ -10530,10 +10530,10 @@
         <v>0</v>
       </c>
       <c r="AI51" s="0">
-        <v>0</v>
+        <v>0.85286956693356597</v>
       </c>
       <c r="AJ51" s="0">
-        <v>0</v>
+        <v>0.81294781299002672</v>
       </c>
       <c r="AK51" s="0">
         <v>0</v>
@@ -10548,10 +10548,10 @@
         <v>0</v>
       </c>
       <c r="AO51" s="0">
-        <v>0</v>
+        <v>0.71364136121972188</v>
       </c>
       <c r="AP51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ51" s="0">
         <v>0</v>
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX51" s="0">
         <v>0</v>
@@ -10584,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>0</v>
+        <v>0.86062908427651519</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10629,7 +10629,7 @@
         <v>0</v>
       </c>
       <c r="BP51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="AB52" s="0">
-        <v>0</v>
+        <v>0.74640305279295482</v>
       </c>
       <c r="AC52" s="0">
         <v>0</v>
@@ -10730,7 +10730,7 @@
         <v>0</v>
       </c>
       <c r="AG52" s="0">
-        <v>0</v>
+        <v>0.97655525247168873</v>
       </c>
       <c r="AH52" s="0">
         <v>0</v>
@@ -10754,7 +10754,7 @@
         <v>0</v>
       </c>
       <c r="AO52" s="0">
-        <v>0</v>
+        <v>0.67046471935865393</v>
       </c>
       <c r="AP52" s="0">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="BM52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN52" s="0">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="BP52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -10894,7 +10894,7 @@
         <v>0</v>
       </c>
       <c r="S53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T53" s="0">
         <v>0</v>
@@ -10915,7 +10915,7 @@
         <v>0</v>
       </c>
       <c r="Z53" s="0">
-        <v>0</v>
+        <v>0.91448891062727444</v>
       </c>
       <c r="AA53" s="0">
         <v>0</v>
@@ -10966,7 +10966,7 @@
         <v>0</v>
       </c>
       <c r="AQ53" s="0">
-        <v>0</v>
+        <v>0.74882378180407705</v>
       </c>
       <c r="AR53" s="0">
         <v>0</v>
@@ -10984,13 +10984,13 @@
         <v>0</v>
       </c>
       <c r="AW53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX53" s="0">
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0</v>
+        <v>0.87127965160453891</v>
       </c>
       <c r="AZ53" s="0">
         <v>0</v>
@@ -11014,13 +11014,13 @@
         <v>0</v>
       </c>
       <c r="BG53" s="0">
-        <v>0</v>
+        <v>0.52251712902162173</v>
       </c>
       <c r="BH53" s="0">
         <v>0</v>
       </c>
       <c r="BI53" s="0">
-        <v>1</v>
+        <v>0.52776482529038682</v>
       </c>
       <c r="BJ53" s="0">
         <v>0</v>
@@ -11032,10 +11032,10 @@
         <v>0</v>
       </c>
       <c r="BM53" s="0">
-        <v>0</v>
+        <v>0.68877077551073684</v>
       </c>
       <c r="BN53" s="0">
-        <v>0</v>
+        <v>0.70245138881989244</v>
       </c>
       <c r="BO53" s="0">
         <v>0</v>
@@ -11052,7 +11052,7 @@
         <v>0</v>
       </c>
       <c r="C54" s="0">
-        <v>0</v>
+        <v>0.89522224274418227</v>
       </c>
       <c r="D54" s="0">
         <v>0</v>
@@ -11097,13 +11097,13 @@
         <v>0</v>
       </c>
       <c r="R54" s="0">
-        <v>0</v>
+        <v>0.78858770148547341</v>
       </c>
       <c r="S54" s="0">
         <v>0</v>
       </c>
       <c r="T54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U54" s="0">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="AE54" s="0">
-        <v>0</v>
+        <v>0.689143407400854</v>
       </c>
       <c r="AF54" s="0">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="BG54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH54" s="0">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="Q55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55" s="0">
         <v>0</v>
@@ -11324,13 +11324,13 @@
         <v>0</v>
       </c>
       <c r="Y55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z55" s="0">
         <v>0</v>
       </c>
       <c r="AA55" s="0">
-        <v>0</v>
+        <v>0.75490437116570741</v>
       </c>
       <c r="AB55" s="0">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="AR55" s="0">
-        <v>0</v>
+        <v>0.68672724994273804</v>
       </c>
       <c r="AS55" s="0">
         <v>0</v>
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0.65928856444655726</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11515,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="T56" s="0">
-        <v>0</v>
+        <v>0.83008114048476678</v>
       </c>
       <c r="U56" s="0">
         <v>0</v>
@@ -11557,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="AH56" s="0">
-        <v>0</v>
+        <v>0.80582232518224162</v>
       </c>
       <c r="AI56" s="0">
         <v>0</v>
@@ -11626,10 +11626,10 @@
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11656,7 +11656,7 @@
         <v>0</v>
       </c>
       <c r="BO56" s="0">
-        <v>0</v>
+        <v>0.8535440033593521</v>
       </c>
       <c r="BP56" s="0">
         <v>0</v>
@@ -11670,7 +11670,7 @@
         <v>0</v>
       </c>
       <c r="C57" s="0">
-        <v>1</v>
+        <v>0.75301243516781347</v>
       </c>
       <c r="D57" s="0">
         <v>0</v>
@@ -11679,7 +11679,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="0">
-        <v>0</v>
+        <v>0.65537501153693711</v>
       </c>
       <c r="G57" s="0">
         <v>0</v>
@@ -11730,13 +11730,13 @@
         <v>0</v>
       </c>
       <c r="W57" s="0">
-        <v>0</v>
+        <v>0.63549669975586609</v>
       </c>
       <c r="X57" s="0">
         <v>0</v>
       </c>
       <c r="Y57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="0">
         <v>0</v>
@@ -11805,7 +11805,7 @@
         <v>0</v>
       </c>
       <c r="AV57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW57" s="0">
         <v>0</v>
@@ -11826,10 +11826,10 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0.83092822118500353</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
@@ -11897,7 +11897,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="0">
-        <v>0</v>
+        <v>0.98936687193332173</v>
       </c>
       <c r="K58" s="0">
         <v>0</v>
@@ -11909,13 +11909,13 @@
         <v>0</v>
       </c>
       <c r="N58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58" s="0">
         <v>0</v>
       </c>
       <c r="P58" s="0">
-        <v>0</v>
+        <v>0.89233976150715011</v>
       </c>
       <c r="Q58" s="0">
         <v>0</v>
@@ -11936,7 +11936,7 @@
         <v>0</v>
       </c>
       <c r="W58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X58" s="0">
         <v>0</v>
@@ -11954,16 +11954,16 @@
         <v>0</v>
       </c>
       <c r="AC58" s="0">
-        <v>0</v>
+        <v>0.91310522030048524</v>
       </c>
       <c r="AD58" s="0">
         <v>0</v>
       </c>
       <c r="AE58" s="0">
-        <v>0</v>
+        <v>0.94601032502903581</v>
       </c>
       <c r="AF58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG58" s="0">
         <v>0</v>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE58" s="0">
         <v>0</v>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="BN58" s="0">
-        <v>1</v>
+        <v>0.8471794374917514</v>
       </c>
       <c r="BO58" s="0">
         <v>0</v>
@@ -12112,7 +12112,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59" s="0">
         <v>0</v>
@@ -12142,7 +12142,7 @@
         <v>0</v>
       </c>
       <c r="W59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X59" s="0">
         <v>0</v>
@@ -12154,7 +12154,7 @@
         <v>0</v>
       </c>
       <c r="AA59" s="0">
-        <v>0</v>
+        <v>0.8377377066566597</v>
       </c>
       <c r="AB59" s="0">
         <v>0</v>
@@ -12169,7 +12169,7 @@
         <v>0</v>
       </c>
       <c r="AF59" s="0">
-        <v>0</v>
+        <v>0.9090333772834388</v>
       </c>
       <c r="AG59" s="0">
         <v>0</v>
@@ -12232,10 +12232,10 @@
         <v>0</v>
       </c>
       <c r="BA59" s="0">
-        <v>0</v>
+        <v>0.95768152190157507</v>
       </c>
       <c r="BB59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC59" s="0">
         <v>0</v>
@@ -12259,7 +12259,7 @@
         <v>0</v>
       </c>
       <c r="BJ59" s="0">
-        <v>0</v>
+        <v>0.56996227891828544</v>
       </c>
       <c r="BK59" s="0">
         <v>0</v>
@@ -12360,7 +12360,7 @@
         <v>0</v>
       </c>
       <c r="AA60" s="0">
-        <v>0</v>
+        <v>0.50367562172851377</v>
       </c>
       <c r="AB60" s="0">
         <v>0</v>
@@ -12369,7 +12369,7 @@
         <v>0</v>
       </c>
       <c r="AD60" s="0">
-        <v>0</v>
+        <v>0.9028170884131087</v>
       </c>
       <c r="AE60" s="0">
         <v>0</v>
@@ -12393,13 +12393,13 @@
         <v>0</v>
       </c>
       <c r="AL60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM60" s="0">
         <v>0</v>
       </c>
       <c r="AN60" s="0">
-        <v>0</v>
+        <v>0.57319176742320854</v>
       </c>
       <c r="AO60" s="0">
         <v>0</v>
@@ -12429,7 +12429,7 @@
         <v>0</v>
       </c>
       <c r="AX60" s="0">
-        <v>1</v>
+        <v>0.97425481285975257</v>
       </c>
       <c r="AY60" s="0">
         <v>0</v>
@@ -12462,7 +12462,7 @@
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ60" s="0">
         <v>0</v>
@@ -12480,7 +12480,7 @@
         <v>0</v>
       </c>
       <c r="BO60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP60" s="0">
         <v>0</v>
@@ -12488,7 +12488,7 @@
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>0</v>
+        <v>0.736641777130155</v>
       </c>
       <c r="B61" s="0">
         <v>0</v>
@@ -12518,7 +12518,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="0">
         <v>0</v>
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="AT61" s="0">
-        <v>0</v>
+        <v>0.7983998446028564</v>
       </c>
       <c r="AU61" s="0">
         <v>0</v>
@@ -12644,7 +12644,7 @@
         <v>0</v>
       </c>
       <c r="BA61" s="0">
-        <v>1</v>
+        <v>0.57466404177739794</v>
       </c>
       <c r="BB61" s="0">
         <v>0</v>
@@ -12665,7 +12665,7 @@
         <v>0</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
@@ -12677,7 +12677,7 @@
         <v>0</v>
       </c>
       <c r="BL61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM61" s="0">
         <v>0</v>
@@ -12706,13 +12706,13 @@
         <v>0</v>
       </c>
       <c r="E62" s="0">
-        <v>0</v>
+        <v>0.69757436956073549</v>
       </c>
       <c r="F62" s="0">
         <v>0</v>
       </c>
       <c r="G62" s="0">
-        <v>0</v>
+        <v>0.83974385544671315</v>
       </c>
       <c r="H62" s="0">
         <v>0</v>
@@ -12721,7 +12721,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="0">
         <v>0</v>
@@ -12739,7 +12739,7 @@
         <v>0</v>
       </c>
       <c r="P62" s="0">
-        <v>0</v>
+        <v>0.89207127894178428</v>
       </c>
       <c r="Q62" s="0">
         <v>0</v>
@@ -12787,7 +12787,7 @@
         <v>0</v>
       </c>
       <c r="AF62" s="0">
-        <v>0</v>
+        <v>0.95062671545187616</v>
       </c>
       <c r="AG62" s="0">
         <v>0</v>
@@ -12796,7 +12796,7 @@
         <v>0</v>
       </c>
       <c r="AI62" s="0">
-        <v>0</v>
+        <v>0.72437694009476061</v>
       </c>
       <c r="AJ62" s="0">
         <v>0</v>
@@ -12868,7 +12868,7 @@
         <v>0</v>
       </c>
       <c r="BG62" s="0">
-        <v>0</v>
+        <v>0.65689905353540068</v>
       </c>
       <c r="BH62" s="0">
         <v>0</v>
@@ -12892,7 +12892,7 @@
         <v>0</v>
       </c>
       <c r="BO62" s="0">
-        <v>1</v>
+        <v>0.95019921308238531</v>
       </c>
       <c r="BP62" s="0">
         <v>0</v>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" s="0">
         <v>0</v>
@@ -12942,7 +12942,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="0">
-        <v>0</v>
+        <v>0.64922354341520871</v>
       </c>
       <c r="P63" s="0">
         <v>0</v>
@@ -12954,7 +12954,7 @@
         <v>0</v>
       </c>
       <c r="S63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T63" s="0">
         <v>0</v>
@@ -12981,7 +12981,7 @@
         <v>0</v>
       </c>
       <c r="AB63" s="0">
-        <v>0</v>
+        <v>0.60153722144001143</v>
       </c>
       <c r="AC63" s="0">
         <v>0</v>
@@ -13011,7 +13011,7 @@
         <v>0</v>
       </c>
       <c r="AL63" s="0">
-        <v>0</v>
+        <v>0.75494345256544404</v>
       </c>
       <c r="AM63" s="0">
         <v>0</v>
@@ -13020,7 +13020,7 @@
         <v>0</v>
       </c>
       <c r="AO63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP63" s="0">
         <v>0</v>
@@ -13032,7 +13032,7 @@
         <v>0</v>
       </c>
       <c r="AS63" s="0">
-        <v>0</v>
+        <v>0.92212556001070944</v>
       </c>
       <c r="AT63" s="0">
         <v>0</v>
@@ -13089,7 +13089,7 @@
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0</v>
+        <v>0.56238689106294837</v>
       </c>
       <c r="BM63" s="0">
         <v>0</v>
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="0">
-        <v>0</v>
+        <v>0.8860007938538359</v>
       </c>
       <c r="C64" s="0">
         <v>0</v>
@@ -13178,13 +13178,13 @@
         <v>0</v>
       </c>
       <c r="Y64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA64" s="0">
-        <v>0</v>
+        <v>0.55441833365871118</v>
       </c>
       <c r="AB64" s="0">
         <v>0</v>
@@ -13226,7 +13226,7 @@
         <v>0</v>
       </c>
       <c r="AO64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP64" s="0">
         <v>0</v>
@@ -13238,7 +13238,7 @@
         <v>0</v>
       </c>
       <c r="AS64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT64" s="0">
         <v>0</v>
@@ -13286,19 +13286,19 @@
         <v>0</v>
       </c>
       <c r="BI64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ64" s="0">
         <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>0</v>
+        <v>0.99602895764353694</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0</v>
+        <v>0.88514057397012036</v>
       </c>
       <c r="BN64" s="0">
         <v>0</v>
@@ -13384,7 +13384,7 @@
         <v>0</v>
       </c>
       <c r="Y65" s="0">
-        <v>0</v>
+        <v>0.89541886564551476</v>
       </c>
       <c r="Z65" s="0">
         <v>0</v>
@@ -13408,7 +13408,7 @@
         <v>0</v>
       </c>
       <c r="AG65" s="0">
-        <v>0</v>
+        <v>0.55877380804466159</v>
       </c>
       <c r="AH65" s="0">
         <v>0</v>
@@ -13420,7 +13420,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="0">
         <v>0</v>
@@ -13459,16 +13459,16 @@
         <v>0</v>
       </c>
       <c r="AX65" s="0">
-        <v>0</v>
+        <v>0.68416706315520703</v>
       </c>
       <c r="AY65" s="0">
         <v>0</v>
       </c>
       <c r="AZ65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA65" s="0">
-        <v>0</v>
+        <v>0.82707077878469104</v>
       </c>
       <c r="BB65" s="0">
         <v>0</v>
@@ -13501,13 +13501,13 @@
         <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>0</v>
+        <v>0.72310546279007148</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO65" s="0">
         <v>0</v>
@@ -13533,7 +13533,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="0">
-        <v>0</v>
+        <v>0.62717304715775979</v>
       </c>
       <c r="G66" s="0">
         <v>0</v>
@@ -13542,7 +13542,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="0">
-        <v>0</v>
+        <v>0.85221439633934004</v>
       </c>
       <c r="J66" s="0">
         <v>0</v>
@@ -13557,7 +13557,7 @@
         <v>0</v>
       </c>
       <c r="N66" s="0">
-        <v>0</v>
+        <v>0.9026226148850276</v>
       </c>
       <c r="O66" s="0">
         <v>0</v>
@@ -13566,7 +13566,7 @@
         <v>0</v>
       </c>
       <c r="Q66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R66" s="0">
         <v>0</v>
@@ -13587,7 +13587,7 @@
         <v>0</v>
       </c>
       <c r="X66" s="0">
-        <v>0</v>
+        <v>0.94713111110616621</v>
       </c>
       <c r="Y66" s="0">
         <v>0</v>
@@ -13674,7 +13674,7 @@
         <v>0</v>
       </c>
       <c r="BA66" s="0">
-        <v>0</v>
+        <v>0.82941905467271404</v>
       </c>
       <c r="BB66" s="0">
         <v>0</v>
@@ -13689,7 +13689,7 @@
         <v>0</v>
       </c>
       <c r="BF66" s="0">
-        <v>1</v>
+        <v>0.58082313286758391</v>
       </c>
       <c r="BG66" s="0">
         <v>0</v>
@@ -13710,13 +13710,13 @@
         <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP66" s="0">
         <v>0</v>
@@ -13808,10 +13808,10 @@
         <v>0</v>
       </c>
       <c r="AC67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE67" s="0">
         <v>0</v>
@@ -13823,7 +13823,7 @@
         <v>0</v>
       </c>
       <c r="AH67" s="0">
-        <v>0</v>
+        <v>0.76237523458528011</v>
       </c>
       <c r="AI67" s="0">
         <v>0</v>
@@ -13871,7 +13871,7 @@
         <v>0</v>
       </c>
       <c r="AX67" s="0">
-        <v>0</v>
+        <v>0.92035600332972667</v>
       </c>
       <c r="AY67" s="0">
         <v>0</v>
@@ -13889,7 +13889,7 @@
         <v>0</v>
       </c>
       <c r="BD67" s="0">
-        <v>0</v>
+        <v>0.82447133137508266</v>
       </c>
       <c r="BE67" s="0">
         <v>0</v>
@@ -13901,13 +13901,13 @@
         <v>0</v>
       </c>
       <c r="BH67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI67" s="0">
         <v>0</v>
       </c>
       <c r="BJ67" s="0">
-        <v>1</v>
+        <v>0.71858112833288845</v>
       </c>
       <c r="BK67" s="0">
         <v>0</v>
@@ -13919,7 +13919,7 @@
         <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
@@ -13930,10 +13930,10 @@
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>0</v>
+        <v>0.73254807254050536</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -13945,7 +13945,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="0">
         <v>0</v>
@@ -13963,7 +13963,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68" s="0">
         <v>0</v>
@@ -13972,7 +13972,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="0">
-        <v>0</v>
+        <v>0.90762793644314033</v>
       </c>
       <c r="P68" s="0">
         <v>0</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="W68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X68" s="0">
         <v>0</v>
@@ -14014,7 +14014,7 @@
         <v>0</v>
       </c>
       <c r="AC68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD68" s="0">
         <v>0</v>
@@ -14029,7 +14029,7 @@
         <v>0</v>
       </c>
       <c r="AH68" s="0">
-        <v>0</v>
+        <v>0.71147426659018276</v>
       </c>
       <c r="AI68" s="0">
         <v>0</v>
@@ -14080,10 +14080,10 @@
         <v>0</v>
       </c>
       <c r="AY68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject4.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject4.xlsx
@@ -164,7 +164,7 @@
         <v>0</v>
       </c>
       <c r="M1" s="0">
-        <v>0.66122860756865609</v>
+        <v>0.74705347331603278</v>
       </c>
       <c r="N1" s="0">
         <v>0</v>
@@ -194,7 +194,7 @@
         <v>0</v>
       </c>
       <c r="W1" s="0">
-        <v>0.51058626693645914</v>
+        <v>0.80323194019730071</v>
       </c>
       <c r="X1" s="0">
         <v>0</v>
@@ -397,7 +397,7 @@
         <v>0</v>
       </c>
       <c r="V2" s="0">
-        <v>0.52746073588691189</v>
+        <v>0.83398991363645592</v>
       </c>
       <c r="W2" s="0">
         <v>0</v>
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="BL2" s="0">
-        <v>0.84968293093909164</v>
+        <v>0.8860007938538359</v>
       </c>
       <c r="BM2" s="0">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.61277145220727958</v>
+        <v>0.62953315856598091</v>
       </c>
       <c r="E3" s="0">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="0">
-        <v>0.60677068538514312</v>
+        <v>0.95475504516532927</v>
       </c>
       <c r="N3" s="0">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="BE3" s="0">
-        <v>0.73402378239747079</v>
+        <v>0.75301243516781347</v>
       </c>
       <c r="BF3" s="0">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="AK4" s="0">
-        <v>0.57916355367158467</v>
+        <v>0.66419335419379733</v>
       </c>
       <c r="AL4" s="0">
         <v>0</v>
       </c>
       <c r="AM4" s="0">
-        <v>0.63504383439426437</v>
+        <v>0.74862432386903432</v>
       </c>
       <c r="AN4" s="0">
         <v>0</v>
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="AW4" s="0">
-        <v>0.92788934203150664</v>
+        <v>0.935363866853689</v>
       </c>
       <c r="AX4" s="0">
         <v>0</v>
@@ -961,13 +961,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.5023945385523767</v>
+        <v>0.89388248573392537</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0.8548783731331917</v>
+        <v>0.98913587262907199</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="BJ5" s="0">
-        <v>0.52951617681965057</v>
+        <v>0.69757436956073549</v>
       </c>
       <c r="BK5" s="0">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="BE6" s="0">
-        <v>0.55212637546956</v>
+        <v>0.65537501153693711</v>
       </c>
       <c r="BF6" s="0">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0.7138841774761151</v>
+        <v>0.94901695591233415</v>
       </c>
       <c r="E7" s="0">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="AQ7" s="0">
-        <v>0.62695683935227986</v>
+        <v>0.79487120927187027</v>
       </c>
       <c r="AR7" s="0">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="BJ7" s="0">
-        <v>0.82768275336806885</v>
+        <v>0.83974385544671315</v>
       </c>
       <c r="BK7" s="0">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0.67355869652047984</v>
+        <v>0.69177247122856422</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
@@ -1645,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="Z8" s="0">
-        <v>0.5058655672886474</v>
+        <v>0.87450487122906995</v>
       </c>
       <c r="AA8" s="0">
         <v>0</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="AU8" s="0">
-        <v>0.68544801550219969</v>
+        <v>0.89546248139836271</v>
       </c>
       <c r="AV8" s="0">
         <v>0</v>
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="AU9" s="0">
-        <v>0.58274526235181012</v>
+        <v>0.74740832509091404</v>
       </c>
       <c r="AV9" s="0">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="BN9" s="0">
-        <v>0.56895933294684331</v>
+        <v>0.85221439633934004</v>
       </c>
       <c r="BO9" s="0">
         <v>0</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.67532524724715504</v>
+        <v>0.81654753756587695</v>
       </c>
       <c r="I10" s="0">
-        <v>0.81960357833756525</v>
+        <v>0.83057183450975813</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="0">
-        <v>0.52816071411977705</v>
+        <v>0.61287931188660827</v>
       </c>
       <c r="V10" s="0">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="BF10" s="0">
-        <v>0.88154421530554461</v>
+        <v>0.98936687193332173</v>
       </c>
       <c r="BG10" s="0">
         <v>0</v>
@@ -2266,7 +2266,7 @@
         <v>0.70861245234536263</v>
       </c>
       <c r="AA11" s="0">
-        <v>0.55052907503800486</v>
+        <v>0.67512047594567448</v>
       </c>
       <c r="AB11" s="0">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="0">
-        <v>0.81406275194170141</v>
+        <v>0.92238538842142082</v>
       </c>
       <c r="AK11" s="0">
         <v>0</v>
       </c>
       <c r="AL11" s="0">
-        <v>0.68399218275655249</v>
+        <v>0.77335972802818775</v>
       </c>
       <c r="AM11" s="0">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>0.77361323810457827</v>
+        <v>0.80350897067894156</v>
       </c>
       <c r="N12" s="0">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="AE12" s="0">
-        <v>0.66309803726732364</v>
+        <v>0.78823001074952681</v>
       </c>
       <c r="AF12" s="0">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="AX12" s="0">
-        <v>0.61397680329318494</v>
+        <v>0.955641385301367</v>
       </c>
       <c r="AY12" s="0">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="0">
-        <v>0.7082412433308849</v>
+        <v>0.85471983535998142</v>
       </c>
       <c r="R13" s="0">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="AW14" s="0">
-        <v>0.63032681738216334</v>
+        <v>0.84272045261081585</v>
       </c>
       <c r="AX14" s="0">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="BN14" s="0">
-        <v>0.73061418702048653</v>
+        <v>0.9026226148850276</v>
       </c>
       <c r="BO14" s="0">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="AN15" s="0">
-        <v>0.72622315395756631</v>
+        <v>0.7354650230074371</v>
       </c>
       <c r="AO15" s="0">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="BK15" s="0">
-        <v>0.64254535743221464</v>
+        <v>0.64922354341520871</v>
       </c>
       <c r="BL15" s="0">
         <v>0</v>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="BP15" s="0">
-        <v>0.77887502317881463</v>
+        <v>0.90762793644314033</v>
       </c>
     </row>
     <row r="16">
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>0.89702323828562325</v>
+        <v>0.90098134554964437</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="AR16" s="0">
-        <v>0.61690514608202374</v>
+        <v>0.98878028332690282</v>
       </c>
       <c r="AS16" s="0">
         <v>0</v>
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="BF16" s="0">
-        <v>0.5006141539945419</v>
+        <v>0.89233976150715011</v>
       </c>
       <c r="BG16" s="0">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="BJ16" s="0">
-        <v>0.7305779298818047</v>
+        <v>0.89207127894178428</v>
       </c>
       <c r="BK16" s="0">
         <v>0</v>
@@ -3699,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="X18" s="0">
-        <v>0.79348192148999119</v>
+        <v>0.88892397301674886</v>
       </c>
       <c r="Y18" s="0">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0.53190623573472573</v>
+        <v>0.95209362679003862</v>
       </c>
       <c r="R19" s="0">
         <v>0</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0.84056504141981114</v>
+        <v>0.8872847592486226</v>
       </c>
       <c r="U19" s="0">
         <v>0</v>
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="AJ19" s="0">
-        <v>0.81218311658253872</v>
+        <v>0.82933072987239287</v>
       </c>
       <c r="AK19" s="0">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AW20" s="0">
-        <v>0.70914081186707012</v>
+        <v>0.79874999094900645</v>
       </c>
       <c r="AX20" s="0">
         <v>0</v>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>0.58144184865753001</v>
+        <v>0.95486920204536918</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
@@ -4359,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="AL21" s="0">
-        <v>0.81061524446932887</v>
+        <v>0.89290962869098767</v>
       </c>
       <c r="AM21" s="0">
         <v>0</v>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="AO21" s="0">
-        <v>0.77171084394888689</v>
+        <v>0.79653780392402429</v>
       </c>
       <c r="AP21" s="0">
         <v>0</v>
@@ -4568,7 +4568,7 @@
         <v>0.75195533281915583</v>
       </c>
       <c r="AM22" s="0">
-        <v>0.50300866053295579</v>
+        <v>0.77599671966449435</v>
       </c>
       <c r="AN22" s="0">
         <v>0</v>
@@ -4828,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="BE23" s="0">
-        <v>0.56026938907307433</v>
+        <v>0.63549669975586609</v>
       </c>
       <c r="BF23" s="0">
         <v>0</v>
@@ -4896,7 +4896,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="0">
-        <v>0.55884065140429251</v>
+        <v>0.99514510829427172</v>
       </c>
       <c r="L24" s="0">
         <v>0</v>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0.64315726311154153</v>
+        <v>0.80397000015995279</v>
       </c>
       <c r="W24" s="0">
         <v>0</v>
@@ -4965,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="AH24" s="0">
-        <v>0.62960824050825748</v>
+        <v>0.97736967657496154</v>
       </c>
       <c r="AI24" s="0">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="BM25" s="0">
-        <v>0.61755732770622596</v>
+        <v>0.89541886564551476</v>
       </c>
       <c r="BN25" s="0">
         <v>0</v>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="0">
-        <v>0.53803116247878502</v>
+        <v>0.70861245234536263</v>
       </c>
       <c r="L26" s="0">
         <v>0</v>
@@ -5350,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="Y26" s="0">
-        <v>0.83097157045319647</v>
+        <v>0.86252842880256231</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
@@ -5434,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="BA26" s="0">
-        <v>0.68197135022516975</v>
+        <v>0.91448891062727444</v>
       </c>
       <c r="BB26" s="0">
         <v>0</v>
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="0">
-        <v>0.82774309075719454</v>
+        <v>0.90944922926212901</v>
       </c>
       <c r="N27" s="0">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="0">
-        <v>0.61513730845766612</v>
+        <v>0.86610632356039141</v>
       </c>
       <c r="X27" s="0">
         <v>0</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="BC27" s="0">
-        <v>0.64095145106690299</v>
+        <v>0.75490437116570741</v>
       </c>
       <c r="BD27" s="0">
         <v>0</v>
@@ -5658,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="BG27" s="0">
-        <v>0.76432981619745588</v>
+        <v>0.8377377066566597</v>
       </c>
       <c r="BH27" s="0">
         <v>0.72410827749282158</v>
@@ -5673,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="BL27" s="0">
-        <v>0.51654329305720736</v>
+        <v>0.55441833365871118</v>
       </c>
       <c r="BM27" s="0">
         <v>0</v>
@@ -5983,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0.61660827385002503</v>
+        <v>0.8839142387978236</v>
       </c>
       <c r="AE29" s="0">
         <v>0</v>
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="AU29" s="0">
-        <v>0.95239583987797305</v>
+        <v>0.9830631260351711</v>
       </c>
       <c r="AV29" s="0">
         <v>0</v>
@@ -6067,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="BF29" s="0">
-        <v>0.53019150775730084</v>
+        <v>0.91310522030048524</v>
       </c>
       <c r="BG29" s="0">
         <v>0</v>
@@ -6144,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="0">
-        <v>0.80076951744788705</v>
+        <v>0.99940844791347305</v>
       </c>
       <c r="P30" s="0">
         <v>0</v>
@@ -6192,10 +6192,10 @@
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0.54540647587672764</v>
+        <v>0.63219208301902463</v>
       </c>
       <c r="AF30" s="0">
-        <v>0.85947290307887925</v>
+        <v>0.91171652746626752</v>
       </c>
       <c r="AG30" s="0">
         <v>0.95728322652776221</v>
@@ -6279,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="BH30" s="0">
-        <v>0.53394768900966327</v>
+        <v>0.9028170884131087</v>
       </c>
       <c r="BI30" s="0">
         <v>0</v>
@@ -6479,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="BF31" s="0">
-        <v>0.56501843588217904</v>
+        <v>0.94601032502903581</v>
       </c>
       <c r="BG31" s="0">
         <v>0</v>
@@ -6517,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="0">
-        <v>0.78357816408488246</v>
+        <v>0.987794281555187</v>
       </c>
       <c r="C32" s="0">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="AI32" s="0">
-        <v>0.60540692795759887</v>
+        <v>0.87378659057682873</v>
       </c>
       <c r="AJ32" s="0">
         <v>0</v>
@@ -6688,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="BG32" s="0">
-        <v>0.90890393195620067</v>
+        <v>0.9090333772834388</v>
       </c>
       <c r="BH32" s="0">
         <v>0</v>
@@ -6744,7 +6744,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="0">
-        <v>0.62549718102184459</v>
+        <v>0.98212929099000124</v>
       </c>
       <c r="J33" s="0">
         <v>0</v>
@@ -6807,7 +6807,7 @@
         <v>0</v>
       </c>
       <c r="AD33" s="0">
-        <v>0.53195675360803962</v>
+        <v>0.95728322652776221</v>
       </c>
       <c r="AE33" s="0">
         <v>0</v>
@@ -6861,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="AV33" s="0">
-        <v>0.82305273048155492</v>
+        <v>0.86700810579891874</v>
       </c>
       <c r="AW33" s="0">
         <v>0</v>
@@ -6873,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="AZ33" s="0">
-        <v>0.63860523769621202</v>
+        <v>0.97655525247168873</v>
       </c>
       <c r="BA33" s="0">
         <v>0</v>
@@ -6965,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="0">
-        <v>0.57973581788103634</v>
+        <v>0.64433815433657582</v>
       </c>
       <c r="O34" s="0">
         <v>0</v>
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="BD34" s="0">
-        <v>0.72207721221851506</v>
+        <v>0.80582232518224162</v>
       </c>
       <c r="BE34" s="0">
         <v>0</v>
@@ -7124,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="BO34" s="0">
-        <v>0.55496485390991968</v>
+        <v>0.76237523458528011</v>
       </c>
       <c r="BP34" s="0">
         <v>0.74277251321456084</v>
@@ -7282,7 +7282,7 @@
         <v>0</v>
       </c>
       <c r="AY35" s="0">
-        <v>0.75012488878855743</v>
+        <v>0.85286956693356597</v>
       </c>
       <c r="AZ35" s="0">
         <v>0</v>
@@ -7676,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="0">
-        <v>0.57295055480543544</v>
+        <v>0.70354892615028874</v>
       </c>
       <c r="AT37" s="0">
         <v>0</v>
@@ -7813,7 +7813,7 @@
         <v>0.89290962869098767</v>
       </c>
       <c r="V38" s="0">
-        <v>0.59842891945918053</v>
+        <v>0.75195533281915583</v>
       </c>
       <c r="W38" s="0">
         <v>0</v>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="AE38" s="0">
-        <v>0.77982652800837227</v>
+        <v>0.80789143665038776</v>
       </c>
       <c r="AF38" s="0">
         <v>0</v>
@@ -7870,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="AO38" s="0">
-        <v>0.64293538039226883</v>
+        <v>0.8077943550835851</v>
       </c>
       <c r="AP38" s="0">
         <v>0</v>
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="AS38" s="0">
-        <v>0.54822281206740753</v>
+        <v>0.83690423746847975</v>
       </c>
       <c r="AT38" s="0">
         <v>0</v>
@@ -8458,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="AE41" s="0">
-        <v>0.93821057080248638</v>
+        <v>0.99333481156362602</v>
       </c>
       <c r="AF41" s="0">
         <v>0</v>
@@ -8595,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="0">
-        <v>0.53393443954905895</v>
+        <v>0.72577065448624023</v>
       </c>
       <c r="I42" s="0">
         <v>0</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="0">
-        <v>0.74020337239328104</v>
+        <v>0.9294839954613956</v>
       </c>
       <c r="Y43" s="0">
         <v>0</v>
@@ -8903,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="AP43" s="0">
-        <v>0.72359833613460323</v>
+        <v>0.81461304812386393</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
@@ -9213,7 +9213,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="0">
-        <v>0.7175095794833658</v>
+        <v>0.74814023971854637</v>
       </c>
       <c r="I45" s="0">
         <v>0</v>
@@ -9378,7 +9378,7 @@
         <v>0</v>
       </c>
       <c r="BK45" s="0">
-        <v>0.77542107415508665</v>
+        <v>0.92212556001070944</v>
       </c>
       <c r="BL45" s="0">
         <v>0</v>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0.82437301308154143</v>
+        <v>0.96547892125299117</v>
       </c>
       <c r="AS46" s="0">
         <v>0</v>
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0.71502681838070692</v>
+        <v>0.82425955800380335</v>
       </c>
       <c r="AV46" s="0">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="0">
-        <v>0.66910554905691133</v>
+        <v>0.75137829940100864</v>
       </c>
       <c r="R47" s="0">
         <v>0</v>
@@ -9810,7 +9810,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.62237322099689019</v>
+        <v>0.82465565965151044</v>
       </c>
       <c r="B48" s="0">
         <v>0</v>
@@ -10399,7 +10399,7 @@
         <v>0</v>
       </c>
       <c r="BH50" s="0">
-        <v>0.65159022472693218</v>
+        <v>0.97425481285975257</v>
       </c>
       <c r="BI50" s="0">
         <v>0</v>
@@ -10414,13 +10414,13 @@
         <v>0</v>
       </c>
       <c r="BM50" s="0">
-        <v>0.5374739174473333</v>
+        <v>0.68416706315520703</v>
       </c>
       <c r="BN50" s="0">
         <v>0</v>
       </c>
       <c r="BO50" s="0">
-        <v>0.86711590171658381</v>
+        <v>0.92035600332972667</v>
       </c>
       <c r="BP50" s="0">
         <v>0</v>
@@ -10533,7 +10533,7 @@
         <v>0.85286956693356597</v>
       </c>
       <c r="AJ51" s="0">
-        <v>0.81294781299002672</v>
+        <v>0.96229163321650857</v>
       </c>
       <c r="AK51" s="0">
         <v>0</v>
@@ -10548,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="AO51" s="0">
-        <v>0.71364136121972188</v>
+        <v>0.92377693888359169</v>
       </c>
       <c r="AP51" s="0">
         <v>0</v>
@@ -10584,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>0.86062908427651519</v>
+        <v>0.87127965160453891</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="AB52" s="0">
-        <v>0.74640305279295482</v>
+        <v>0.74777608516305794</v>
       </c>
       <c r="AC52" s="0">
         <v>0</v>
@@ -10754,7 +10754,7 @@
         <v>0</v>
       </c>
       <c r="AO52" s="0">
-        <v>0.67046471935865393</v>
+        <v>0.9292864240944354</v>
       </c>
       <c r="AP52" s="0">
         <v>0</v>
@@ -10966,7 +10966,7 @@
         <v>0</v>
       </c>
       <c r="AQ53" s="0">
-        <v>0.74882378180407705</v>
+        <v>0.9245333613082628</v>
       </c>
       <c r="AR53" s="0">
         <v>0</v>
@@ -11014,13 +11014,13 @@
         <v>0</v>
       </c>
       <c r="BG53" s="0">
-        <v>0.52251712902162173</v>
+        <v>0.95768152190157507</v>
       </c>
       <c r="BH53" s="0">
         <v>0</v>
       </c>
       <c r="BI53" s="0">
-        <v>0.52776482529038682</v>
+        <v>0.57466404177739794</v>
       </c>
       <c r="BJ53" s="0">
         <v>0</v>
@@ -11032,10 +11032,10 @@
         <v>0</v>
       </c>
       <c r="BM53" s="0">
-        <v>0.68877077551073684</v>
+        <v>0.82707077878469104</v>
       </c>
       <c r="BN53" s="0">
-        <v>0.70245138881989244</v>
+        <v>0.82941905467271404</v>
       </c>
       <c r="BO53" s="0">
         <v>0</v>
@@ -11052,7 +11052,7 @@
         <v>0</v>
       </c>
       <c r="C54" s="0">
-        <v>0.89522224274418227</v>
+        <v>0.97936999799881952</v>
       </c>
       <c r="D54" s="0">
         <v>0</v>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="R54" s="0">
-        <v>0.78858770148547341</v>
+        <v>0.88188378494703745</v>
       </c>
       <c r="S54" s="0">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="AE54" s="0">
-        <v>0.689143407400854</v>
+        <v>0.85103480605091031</v>
       </c>
       <c r="AF54" s="0">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="AR55" s="0">
-        <v>0.68672724994273804</v>
+        <v>0.94557851611297172</v>
       </c>
       <c r="AS55" s="0">
         <v>0</v>
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>0.65928856444655726</v>
+        <v>0.83092822118500353</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11515,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="T56" s="0">
-        <v>0.83008114048476678</v>
+        <v>0.99721068004611912</v>
       </c>
       <c r="U56" s="0">
         <v>0</v>
@@ -12259,7 +12259,7 @@
         <v>0</v>
       </c>
       <c r="BJ59" s="0">
-        <v>0.56996227891828544</v>
+        <v>0.65689905353540068</v>
       </c>
       <c r="BK59" s="0">
         <v>0</v>
@@ -12360,7 +12360,7 @@
         <v>0</v>
       </c>
       <c r="AA60" s="0">
-        <v>0.50367562172851377</v>
+        <v>0.72410827749282158</v>
       </c>
       <c r="AB60" s="0">
         <v>0</v>
@@ -12399,7 +12399,7 @@
         <v>0</v>
       </c>
       <c r="AN60" s="0">
-        <v>0.57319176742320854</v>
+        <v>0.80472789628304708</v>
       </c>
       <c r="AO60" s="0">
         <v>0</v>
@@ -12488,7 +12488,7 @@
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>0.736641777130155</v>
+        <v>0.87316156654929455</v>
       </c>
       <c r="B61" s="0">
         <v>0</v>
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="AT61" s="0">
-        <v>0.7983998446028564</v>
+        <v>0.8922441749513319</v>
       </c>
       <c r="AU61" s="0">
         <v>0</v>
@@ -12787,7 +12787,7 @@
         <v>0</v>
       </c>
       <c r="AF62" s="0">
-        <v>0.95062671545187616</v>
+        <v>0.9731813116351149</v>
       </c>
       <c r="AG62" s="0">
         <v>0</v>
@@ -12796,7 +12796,7 @@
         <v>0</v>
       </c>
       <c r="AI62" s="0">
-        <v>0.72437694009476061</v>
+        <v>0.76015065320532715</v>
       </c>
       <c r="AJ62" s="0">
         <v>0</v>
@@ -12981,7 +12981,7 @@
         <v>0</v>
       </c>
       <c r="AB63" s="0">
-        <v>0.60153722144001143</v>
+        <v>0.83643444153672764</v>
       </c>
       <c r="AC63" s="0">
         <v>0</v>
@@ -13011,7 +13011,7 @@
         <v>0</v>
       </c>
       <c r="AL63" s="0">
-        <v>0.75494345256544404</v>
+        <v>0.79287551197713746</v>
       </c>
       <c r="AM63" s="0">
         <v>0</v>
@@ -13089,7 +13089,7 @@
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0.56238689106294837</v>
+        <v>0.99602895764353694</v>
       </c>
       <c r="BM63" s="0">
         <v>0</v>
@@ -13408,7 +13408,7 @@
         <v>0</v>
       </c>
       <c r="AG65" s="0">
-        <v>0.55877380804466159</v>
+        <v>0.57854748294076086</v>
       </c>
       <c r="AH65" s="0">
         <v>0</v>
@@ -13501,7 +13501,7 @@
         <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>0.72310546279007148</v>
+        <v>0.88514057397012036</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
@@ -13533,7 +13533,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="0">
-        <v>0.62717304715775979</v>
+        <v>0.72964100011510258</v>
       </c>
       <c r="G66" s="0">
         <v>0</v>
@@ -13587,7 +13587,7 @@
         <v>0</v>
       </c>
       <c r="X66" s="0">
-        <v>0.94713111110616621</v>
+        <v>0.94768479458433186</v>
       </c>
       <c r="Y66" s="0">
         <v>0</v>
@@ -13689,7 +13689,7 @@
         <v>0</v>
       </c>
       <c r="BF66" s="0">
-        <v>0.58082313286758391</v>
+        <v>0.8471794374917514</v>
       </c>
       <c r="BG66" s="0">
         <v>0</v>
@@ -13889,7 +13889,7 @@
         <v>0</v>
       </c>
       <c r="BD67" s="0">
-        <v>0.82447133137508266</v>
+        <v>0.8535440033593521</v>
       </c>
       <c r="BE67" s="0">
         <v>0</v>
@@ -13907,7 +13907,7 @@
         <v>0</v>
       </c>
       <c r="BJ67" s="0">
-        <v>0.71858112833288845</v>
+        <v>0.95019921308238531</v>
       </c>
       <c r="BK67" s="0">
         <v>0</v>
@@ -13933,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>0.73254807254050536</v>
+        <v>0.7529030834860948</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -14029,7 +14029,7 @@
         <v>0</v>
       </c>
       <c r="AH68" s="0">
-        <v>0.71147426659018276</v>
+        <v>0.74277251321456084</v>
       </c>
       <c r="AI68" s="0">
         <v>0</v>
